--- a/assets/templates/cr_upload_template.xlsx
+++ b/assets/templates/cr_upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\System\latest\rata_backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A36D3-0BAD-4818-8832-844BA9BC601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A2A04-9A63-4905-9348-30035C68D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CED9081-0AEF-4EB7-8D4A-1D678E019396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CED9081-0AEF-4EB7-8D4A-1D678E019396}"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
-  <si>
-    <t>Default '0001'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>CR Number
 (Char Limit: 12)</t>
@@ -102,17 +99,7 @@
     <t>EXTENDED AMT</t>
   </si>
   <si>
-    <t>CR Number
-1. DraftBillNoA
-2. Mmmyyxxxxxx
-(Char Limit: 12)</t>
-  </si>
-  <si>
     <t>Trip Plan Number</t>
-  </si>
-  <si>
-    <t>Upload Date
-YYYY-MM-DD</t>
   </si>
   <si>
     <t>Default 'S'</t>
@@ -165,6 +152,13 @@
   </si>
   <si>
     <t>CR AMT</t>
+  </si>
+  <si>
+    <t>Default '00001'</t>
+  </si>
+  <si>
+    <t>Upload Date
+(YYYY-MM-DD)</t>
   </si>
 </sst>
 </file>
@@ -180,16 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -229,22 +221,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1260F2D1-7F5C-46FD-B97F-D09C455C8604}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,79 +572,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -667,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D88136D-0934-4E99-A3F9-E4F0E24A59FE}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,74 +674,74 @@
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
